--- a/record/Recordlist.xlsx
+++ b/record/Recordlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q506869\OneDrive - BMW Group\Dokumente\07_Programmieren\Python\adventofcode2022\record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maksim\Desktop\Alter PC\Projekte\Programmieren\adventofcode2022\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0A8206-CF84-4C29-847B-D580C3B37D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D75029-9F1E-419A-8991-61FB2670BE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="5655" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -78,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -108,15 +106,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -188,109 +177,166 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -299,73 +345,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -649,309 +692,319 @@
   <dimension ref="B2:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.88671875" style="1" customWidth="1"/>
-    <col min="3" max="6" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="1" customWidth="1"/>
+    <col min="3" max="6" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="18"/>
-      <c r="C4" s="4" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="19">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="8">
-        <v>0.17509259259259258</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.20949074074074073</v>
-      </c>
-      <c r="E5" s="9">
-        <f>C5+D5</f>
-        <v>0.38458333333333328</v>
-      </c>
-      <c r="F5" s="10">
-        <f>(C5+D5)/2</f>
-        <v>0.19229166666666664</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="20">
+      <c r="C5" s="10">
+        <v>2.9166666666666668E-3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.483796296296296E-3</v>
+      </c>
+      <c r="E5" s="2">
+        <f>D5+C5</f>
+        <v>6.4004629629629628E-3</v>
+      </c>
+      <c r="F5" s="15">
+        <f>E5/2</f>
+        <v>3.2002314814814814E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.58822916666666669</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.29733796296296294</v>
-      </c>
-      <c r="E6" s="7">
-        <f>C6+D6</f>
-        <v>0.88556712962962969</v>
-      </c>
-      <c r="F6" s="11">
-        <f>(C6+D6)/2</f>
-        <v>0.44278356481481485</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="20">
+      <c r="C6" s="16">
+        <v>9.8032407407407408E-3</v>
+      </c>
+      <c r="D6" s="11">
+        <v>4.9537037037037041E-3</v>
+      </c>
+      <c r="E6" s="11">
+        <f>D6+C6</f>
+        <v>1.4756944444444444E-2</v>
+      </c>
+      <c r="F6" s="17">
+        <f>E6/2</f>
+        <v>7.378472222222222E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="20">
+      <c r="C7" s="16">
+        <v>4.1435185185185186E-3</v>
+      </c>
+      <c r="D7" s="11">
+        <v>2.4189814814814817E-2</v>
+      </c>
+      <c r="E7" s="11">
+        <f>D7+C7</f>
+        <v>2.8333333333333335E-2</v>
+      </c>
+      <c r="F7" s="17">
+        <f>E7/2</f>
+        <v>1.4166666666666668E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="20">
+      <c r="C8" s="16"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="20">
+      <c r="C9" s="16"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="20">
+      <c r="C10" s="16"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="20">
+      <c r="C11" s="16"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="20">
+      <c r="C12" s="16"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="20">
+      <c r="C13" s="16"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="20">
+      <c r="C14" s="16"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="20">
+      <c r="C15" s="16"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="20">
+      <c r="C16" s="16"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
         <v>13</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="20">
+      <c r="C17" s="16"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
         <v>14</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="20">
+      <c r="C18" s="16"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
         <v>15</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="20">
+      <c r="C19" s="16"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
         <v>16</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="20">
+      <c r="C20" s="16"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
         <v>17</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="20">
+      <c r="C21" s="16"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
         <v>18</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="20">
+      <c r="C22" s="16"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
         <v>19</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="20">
+      <c r="C23" s="16"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
         <v>20</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="20">
+      <c r="C24" s="16"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
         <v>21</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="20">
+      <c r="C25" s="16"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
         <v>22</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="20">
+      <c r="C26" s="16"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
         <v>23</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="20">
+      <c r="C27" s="16"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="4">
         <v>24</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="21">
+      <c r="C28" s="16"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="5">
         <v>25</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15"/>
-    </row>
-    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="22" t="s">
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="21">
         <f>SUM(C5:C29)</f>
-        <v>0.76332175925925927</v>
-      </c>
-      <c r="D30" s="16">
+        <v>1.6863425925925928E-2</v>
+      </c>
+      <c r="D30" s="21">
         <f t="shared" ref="D30:F30" si="0">SUM(D5:D29)</f>
-        <v>0.5068287037037037</v>
-      </c>
-      <c r="E30" s="16">
+        <v>3.2627314814814817E-2</v>
+      </c>
+      <c r="E30" s="21">
         <f t="shared" si="0"/>
-        <v>1.270150462962963</v>
-      </c>
-      <c r="F30" s="23">
+        <v>4.9490740740740738E-2</v>
+      </c>
+      <c r="F30" s="22">
         <f t="shared" si="0"/>
-        <v>0.63507523148148148</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+        <v>2.4745370370370369E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C3:F3"/>

--- a/record/Recordlist.xlsx
+++ b/record/Recordlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maksim\Desktop\Alter PC\Projekte\Programmieren\adventofcode2022\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D75029-9F1E-419A-8991-61FB2670BE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195EA3F7-4F18-4C30-8362-0669DE1A763B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="5655" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,22 +365,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -409,6 +397,18 @@
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,28 +703,28 @@
   <sheetData>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="10" t="s">
         <v>1</v>
       </c>
     </row>
@@ -732,7 +732,7 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>2.9166666666666668E-3</v>
       </c>
       <c r="D5" s="2">
@@ -742,7 +742,7 @@
         <f>D5+C5</f>
         <v>6.4004629629629628E-3</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="11">
         <f>E5/2</f>
         <v>3.2002314814814814E-3</v>
       </c>
@@ -751,17 +751,17 @@
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="12">
         <v>9.8032407407407408E-3</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>4.9537037037037041E-3</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="8">
         <f>D6+C6</f>
         <v>1.4756944444444444E-2</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="13">
         <f>E6/2</f>
         <v>7.378472222222222E-3</v>
       </c>
@@ -770,17 +770,17 @@
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="12">
         <v>4.1435185185185186E-3</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>2.4189814814814817E-2</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="8">
         <f>D7+C7</f>
         <v>2.8333333333333335E-2</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="13">
         <f>E7/2</f>
         <v>1.4166666666666668E-2</v>
       </c>
@@ -789,219 +789,229 @@
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="17"/>
+      <c r="C8" s="12">
+        <v>1.037037037037037E-2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>8.113425925925925E-3</v>
+      </c>
+      <c r="E8" s="8">
+        <f>D8+C8</f>
+        <v>1.8483796296296297E-2</v>
+      </c>
+      <c r="F8" s="13">
+        <f>E8/2</f>
+        <v>9.2418981481481484E-3</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="17"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="17"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="17"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="17"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="17"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="17"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="17"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="17"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>13</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="17"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>14</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="17"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>15</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="17"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>16</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="17"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>17</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="17"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>18</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="17"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>19</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="17"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>20</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="17"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>21</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="17"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>22</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="17"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>23</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="17"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>24</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="17"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <v>25</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="17">
         <f>SUM(C5:C29)</f>
-        <v>1.6863425925925928E-2</v>
-      </c>
-      <c r="D30" s="21">
+        <v>2.7233796296296298E-2</v>
+      </c>
+      <c r="D30" s="17">
         <f t="shared" ref="D30:F30" si="0">SUM(D5:D29)</f>
-        <v>3.2627314814814817E-2</v>
-      </c>
-      <c r="E30" s="21">
+        <v>4.0740740740740744E-2</v>
+      </c>
+      <c r="E30" s="17">
         <f t="shared" si="0"/>
-        <v>4.9490740740740738E-2</v>
-      </c>
-      <c r="F30" s="22">
+        <v>6.7974537037037042E-2</v>
+      </c>
+      <c r="F30" s="18">
         <f t="shared" si="0"/>
-        <v>2.4745370370370369E-2</v>
+        <v>3.3987268518518521E-2</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/record/Recordlist.xlsx
+++ b/record/Recordlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maksim\Desktop\Alter PC\Projekte\Programmieren\adventofcode2022\record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q506869\OneDrive - BMW Group\Dokumente\07_Programmieren\Python\adventofcode2022\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195EA3F7-4F18-4C30-8362-0669DE1A763B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC26122-08D5-49A9-85D8-51859089210E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="5655" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -691,18 +693,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.85546875" style="1" customWidth="1"/>
-    <col min="3" max="6" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" style="1" customWidth="1"/>
+    <col min="3" max="6" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -713,7 +715,7 @@
       <c r="E3" s="19"/>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="22"/>
       <c r="C4" s="9" t="s">
         <v>4</v>
@@ -728,7 +730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>1</v>
       </c>
@@ -747,7 +749,7 @@
         <v>3.2002314814814814E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>2</v>
       </c>
@@ -766,7 +768,7 @@
         <v>7.378472222222222E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -785,7 +787,7 @@
         <v>1.4166666666666668E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -804,16 +806,26 @@
         <v>9.2418981481481484E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="12">
+        <v>1.8912037037037036E-2</v>
+      </c>
+      <c r="D9" s="8">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="E9" s="8">
+        <f>D9+C9</f>
+        <v>2.6724537037037036E-2</v>
+      </c>
+      <c r="F9" s="13">
+        <f>E9/2</f>
+        <v>1.3362268518518518E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -822,7 +834,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -831,7 +843,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -840,7 +852,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -849,7 +861,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -858,7 +870,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -867,7 +879,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -876,7 +888,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -885,7 +897,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -894,7 +906,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -903,7 +915,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -912,7 +924,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -921,7 +933,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -930,7 +942,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -939,7 +951,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -948,7 +960,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -957,7 +969,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>22</v>
       </c>
@@ -966,7 +978,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>23</v>
       </c>
@@ -975,7 +987,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="13"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>24</v>
       </c>
@@ -984,7 +996,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="5">
         <v>25</v>
       </c>
@@ -993,28 +1005,28 @@
       <c r="E29" s="15"/>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="17">
         <f>SUM(C5:C29)</f>
-        <v>2.7233796296296298E-2</v>
+        <v>4.614583333333333E-2</v>
       </c>
       <c r="D30" s="17">
         <f t="shared" ref="D30:F30" si="0">SUM(D5:D29)</f>
-        <v>4.0740740740740744E-2</v>
+        <v>4.8553240740740744E-2</v>
       </c>
       <c r="E30" s="17">
         <f t="shared" si="0"/>
-        <v>6.7974537037037042E-2</v>
+        <v>9.4699074074074074E-2</v>
       </c>
       <c r="F30" s="18">
-        <f t="shared" si="0"/>
-        <v>3.3987268518518521E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <f>SUM(C5:D29)/COUNT(C5:D29)</f>
+        <v>9.4699074074074061E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C3:F3"/>

--- a/record/Recordlist.xlsx
+++ b/record/Recordlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q506869\OneDrive - BMW Group\Dokumente\07_Programmieren\Python\adventofcode2022\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC26122-08D5-49A9-85D8-51859089210E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4E4FEE-ADC0-4E6F-91FC-D1C2E5370B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -694,7 +694,7 @@
   <dimension ref="B2:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,10 +829,20 @@
       <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="13"/>
+      <c r="C10" s="12">
+        <v>7.083333333333333E-3</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1.2152777777777778E-3</v>
+      </c>
+      <c r="E10" s="8">
+        <f>D10+C10</f>
+        <v>8.2986111111111108E-3</v>
+      </c>
+      <c r="F10" s="13">
+        <f>E10/2</f>
+        <v>4.1493055555555554E-3</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -1011,19 +1021,19 @@
       </c>
       <c r="C30" s="17">
         <f>SUM(C5:C29)</f>
-        <v>4.614583333333333E-2</v>
+        <v>5.3229166666666661E-2</v>
       </c>
       <c r="D30" s="17">
-        <f t="shared" ref="D30:F30" si="0">SUM(D5:D29)</f>
-        <v>4.8553240740740744E-2</v>
+        <f t="shared" ref="D30:E30" si="0">SUM(D5:D29)</f>
+        <v>4.9768518518518524E-2</v>
       </c>
       <c r="E30" s="17">
         <f t="shared" si="0"/>
-        <v>9.4699074074074074E-2</v>
+        <v>0.10299768518518518</v>
       </c>
       <c r="F30" s="18">
         <f>SUM(C5:D29)/COUNT(C5:D29)</f>
-        <v>9.4699074074074061E-3</v>
+        <v>8.5831404320987643E-3</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>

--- a/record/Recordlist.xlsx
+++ b/record/Recordlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q506869\OneDrive - BMW Group\Dokumente\07_Programmieren\Python\adventofcode2022\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4E4FEE-ADC0-4E6F-91FC-D1C2E5370B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6720D4-BEB7-4099-9BA6-BC64FA46A2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -694,7 +694,7 @@
   <dimension ref="B2:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -741,11 +741,11 @@
         <v>3.483796296296296E-3</v>
       </c>
       <c r="E5" s="2">
-        <f>D5+C5</f>
+        <f t="shared" ref="E5:E10" si="0">D5+C5</f>
         <v>6.4004629629629628E-3</v>
       </c>
       <c r="F5" s="11">
-        <f>E5/2</f>
+        <f t="shared" ref="F5:F12" si="1">E5/2</f>
         <v>3.2002314814814814E-3</v>
       </c>
     </row>
@@ -760,11 +760,11 @@
         <v>4.9537037037037041E-3</v>
       </c>
       <c r="E6" s="8">
-        <f>D6+C6</f>
+        <f t="shared" si="0"/>
         <v>1.4756944444444444E-2</v>
       </c>
       <c r="F6" s="13">
-        <f>E6/2</f>
+        <f t="shared" si="1"/>
         <v>7.378472222222222E-3</v>
       </c>
     </row>
@@ -779,11 +779,11 @@
         <v>2.4189814814814817E-2</v>
       </c>
       <c r="E7" s="8">
-        <f>D7+C7</f>
+        <f t="shared" si="0"/>
         <v>2.8333333333333335E-2</v>
       </c>
       <c r="F7" s="13">
-        <f>E7/2</f>
+        <f t="shared" si="1"/>
         <v>1.4166666666666668E-2</v>
       </c>
     </row>
@@ -798,11 +798,11 @@
         <v>8.113425925925925E-3</v>
       </c>
       <c r="E8" s="8">
-        <f>D8+C8</f>
+        <f t="shared" si="0"/>
         <v>1.8483796296296297E-2</v>
       </c>
       <c r="F8" s="13">
-        <f>E8/2</f>
+        <f t="shared" si="1"/>
         <v>9.2418981481481484E-3</v>
       </c>
     </row>
@@ -817,11 +817,11 @@
         <v>7.8125E-3</v>
       </c>
       <c r="E9" s="8">
-        <f>D9+C9</f>
+        <f t="shared" si="0"/>
         <v>2.6724537037037036E-2</v>
       </c>
       <c r="F9" s="13">
-        <f>E9/2</f>
+        <f t="shared" si="1"/>
         <v>1.3362268518518518E-2</v>
       </c>
     </row>
@@ -836,11 +836,11 @@
         <v>1.2152777777777778E-3</v>
       </c>
       <c r="E10" s="8">
-        <f>D10+C10</f>
+        <f t="shared" si="0"/>
         <v>8.2986111111111108E-3</v>
       </c>
       <c r="F10" s="13">
-        <f>E10/2</f>
+        <f t="shared" si="1"/>
         <v>4.1493055555555554E-3</v>
       </c>
     </row>
@@ -857,10 +857,20 @@
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="13"/>
+      <c r="C12" s="12">
+        <v>3.2106481481481479E-2</v>
+      </c>
+      <c r="D12" s="8">
+        <v>5.4328703703703705E-2</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" ref="E11:E12" si="2">D12+C12</f>
+        <v>8.6435185185185184E-2</v>
+      </c>
+      <c r="F12" s="13">
+        <f t="shared" si="1"/>
+        <v>4.3217592592592592E-2</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
@@ -1021,19 +1031,19 @@
       </c>
       <c r="C30" s="17">
         <f>SUM(C5:C29)</f>
-        <v>5.3229166666666661E-2</v>
+        <v>8.5335648148148147E-2</v>
       </c>
       <c r="D30" s="17">
-        <f t="shared" ref="D30:E30" si="0">SUM(D5:D29)</f>
-        <v>4.9768518518518524E-2</v>
+        <f t="shared" ref="D30:E30" si="3">SUM(D5:D29)</f>
+        <v>0.10409722222222223</v>
       </c>
       <c r="E30" s="17">
-        <f t="shared" si="0"/>
-        <v>0.10299768518518518</v>
+        <f t="shared" si="3"/>
+        <v>0.18943287037037038</v>
       </c>
       <c r="F30" s="18">
         <f>SUM(C5:D29)/COUNT(C5:D29)</f>
-        <v>8.5831404320987643E-3</v>
+        <v>1.353091931216931E-2</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
